--- a/Kanji_v2/KanjiN5/Batch_6/Lesson1/kanjiv2.xlsx
+++ b/Kanji_v2/KanjiN5/Batch_6/Lesson1/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\KanjiN5\Batch_6\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589FD1E-711E-487D-9659-08C0C1251E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA770D08-1960-4FD3-BBC4-D1A2C1E96EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>submeaning</t>
   </si>
   <si>
-    <t>NHỊ</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
     <t>曜</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>第ー課</t>
+  </si>
+  <si>
+    <t>THƯ</t>
+  </si>
+  <si>
+    <t>viết</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,93 +484,93 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
